--- a/개별플젝1-ACC/요구사항.xlsx
+++ b/개별플젝1-ACC/요구사항.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkdle\OneDrive\바탕 화면\SW-camp-Project\1주차-개별플젝1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkdle\OneDrive\바탕 화면\SW-camp-Project\개별플젝1-ACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F98092-E210-446D-AF58-A61587C3F976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505BF83A-4D21-46E2-8099-F477C35886B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC15D6F0-EE62-4228-A79F-CB9E2B0BE20A}"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="23064" windowHeight="12264" xr2:uid="{AC15D6F0-EE62-4228-A79F-CB9E2B0BE20A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>Req.ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +264,32 @@
   </si>
   <si>
     <t>파란LED는 ACC standby와 ACC on모드에서 동작하고, ACC off모드에서 꺼져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_sw_12</t>
+  </si>
+  <si>
+    <t>acc_sw_13</t>
+  </si>
+  <si>
+    <t>장성준/2024-02-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물이 50cm이하이면 부저는 1초주기로 울리고, 10cm이하면 0.2초 주기로 울린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조도센서의 밝기값이 500이상이면 RGB_LED를 끄고, 500이하이면 값이 작으면 LED는 밝게, 크면 LED는 작게 킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,21 +657,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB016229-E640-438D-A7DC-0F8D88531497}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.625" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -679,7 +709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -696,7 +726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -713,7 +743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -730,7 +760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -747,7 +777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -764,7 +794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -781,7 +811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1</v>
       </c>
@@ -798,7 +828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2</v>
       </c>
@@ -815,7 +845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -832,7 +862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -849,7 +879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -866,7 +896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>3</v>
       </c>
@@ -883,7 +913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -900,7 +930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -917,7 +947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -934,7 +964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -951,7 +981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2</v>
       </c>
@@ -968,7 +998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -985,7 +1015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1001,8 +1031,11 @@
       <c r="F21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1019,8 +1052,39 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
